--- a/publisher/public/assets/JAILS.xlsx
+++ b/publisher/public/assets/JAILS.xlsx
@@ -32,13 +32,14 @@
     <sheet name="post_adj_releases_by_type" sheetId="23" r:id="rId23"/>
     <sheet name="use_of_force" sheetId="24" r:id="rId24"/>
     <sheet name="grievances_upheld" sheetId="25" r:id="rId25"/>
+    <sheet name="grievances_upheld_by_type" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7087" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7118" uniqueCount="100">
   <si>
     <t>year</t>
   </si>
@@ -314,6 +315,30 @@
   </si>
   <si>
     <t>Unknown Post-adjudication Releases</t>
+  </si>
+  <si>
+    <t>grievances_upheld_type</t>
+  </si>
+  <si>
+    <t>Living Conditions</t>
+  </si>
+  <si>
+    <t>Personal Safety</t>
+  </si>
+  <si>
+    <t>Discrimination, Racial Bias, or Religious Practices</t>
+  </si>
+  <si>
+    <t>Access to Health Care</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Other Grievance</t>
+  </si>
+  <si>
+    <t>Unknown Grievance</t>
   </si>
 </sst>
 </file>
@@ -24999,6 +25024,147 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
